--- a/biology/Médecine/Grace_Amponsah-Ababio/Grace_Amponsah-Ababio.xlsx
+++ b/biology/Médecine/Grace_Amponsah-Ababio/Grace_Amponsah-Ababio.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grace Amponsah-Ababio (née le 22 décembre 1941) est une dentiste ghanéenne et une diplomate à la retraite[1],[2].  
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grace Amponsah-Ababio (née le 22 décembre 1941) est une dentiste ghanéenne et une diplomate à la retraite,.  
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Éducation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Grace a fait ses études secondaires de 1955 à 1959 au Wesley Girls' Senior High School, à Cape Coast, au Ghana. De 1961 à 1962. Elle a étudié à l'Université technique nationale d'Ukraine "KPI" en Union soviétique. De 1962 à 1966, elle a étudié à l'Université nationale de médecine d'Odessa en Union soviétique. En tant que dentiste, elle s'est spécialisée en stomatologie. 
 </t>
@@ -542,7 +556,9 @@
           <t>Carrière médicale</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">De 1967 à 1969, elle a été house officer à l'hôpital universitaire Komo Anokye de Kumasi. De 1972 à 1974, elle a été dentiste principale à l'hôpital universitaire Korle-Bu. De 1974 à 1978, elle a été chirurgienne dentaire de premier plan à la polyclinique municipale du district Ussher Fort à Accra. De janvier 1979 à septembre 2001, elle a dirigé son cabinet dentaire privé. De 1989 à 2001, elle a été l'une des initiatrices de la «Mobile Dental Clinic» et de la «Social Dental Outreach» avec les services dentaires pour les communautés dans le besoin au Ghana.  
 </t>
@@ -573,9 +589,11 @@
           <t>Carrière politique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">De septembre 2001 au 5 septembre 2004, elle a été ambassadrice à La Haye (Pays-Bas) et a été accréditée par l'Organisation pour l'interdiction des armes chimiques[3]. Elle succède à Eunice Brookman-Amissah[4] et elle est remplacée par Joe Tony Aidoo[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">De septembre 2001 au 5 septembre 2004, elle a été ambassadrice à La Haye (Pays-Bas) et a été accréditée par l'Organisation pour l'interdiction des armes chimiques. Elle succède à Eunice Brookman-Amissah et elle est remplacée par Joe Tony Aidoo.
 </t>
         </is>
       </c>
